--- a/Excel/GameGameConfig游戏配置.xlsx
+++ b/Excel/GameGameConfig游戏配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,6 +108,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -113,6 +116,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -445,7 +449,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
